--- a/xls/itemsDiamond.xlsx
+++ b/xls/itemsDiamond.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@宝石表" sheetId="1" r:id="rId1"/>
@@ -112,278 +112,278 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1级射门宝石</t>
-  </si>
-  <si>
-    <t>2级射门宝石</t>
-  </si>
-  <si>
-    <t>3级射门宝石</t>
-  </si>
-  <si>
-    <t>4级射门宝石</t>
-  </si>
-  <si>
-    <t>5级射门宝石</t>
-  </si>
-  <si>
-    <t>6级射门宝石</t>
-  </si>
-  <si>
-    <t>7级射门宝石</t>
-  </si>
-  <si>
-    <t>8级射门宝石</t>
-  </si>
-  <si>
-    <t>9级射门宝石</t>
-  </si>
-  <si>
-    <t>1级传球宝石</t>
-  </si>
-  <si>
-    <t>2级传球宝石</t>
-  </si>
-  <si>
-    <t>3级传球宝石</t>
-  </si>
-  <si>
-    <t>4级传球宝石</t>
-  </si>
-  <si>
-    <t>5级传球宝石</t>
-  </si>
-  <si>
-    <t>6级传球宝石</t>
-  </si>
-  <si>
-    <t>7级传球宝石</t>
-  </si>
-  <si>
-    <t>8级传球宝石</t>
-  </si>
-  <si>
-    <t>9级传球宝石</t>
-  </si>
-  <si>
-    <t>1级盘带宝石</t>
-  </si>
-  <si>
-    <t>2级盘带宝石</t>
-  </si>
-  <si>
-    <t>3级盘带宝石</t>
-  </si>
-  <si>
-    <t>4级盘带宝石</t>
-  </si>
-  <si>
-    <t>5级盘带宝石</t>
-  </si>
-  <si>
-    <t>6级盘带宝石</t>
-  </si>
-  <si>
-    <t>7级盘带宝石</t>
-  </si>
-  <si>
-    <t>8级盘带宝石</t>
-  </si>
-  <si>
-    <t>9级盘带宝石</t>
-  </si>
-  <si>
-    <t>1级防守宝石</t>
-  </si>
-  <si>
-    <t>2级防守宝石</t>
-  </si>
-  <si>
-    <t>3级防守宝石</t>
-  </si>
-  <si>
-    <t>4级防守宝石</t>
-  </si>
-  <si>
-    <t>5级防守宝石</t>
-  </si>
-  <si>
-    <t>6级防守宝石</t>
-  </si>
-  <si>
-    <t>7级防守宝石</t>
-  </si>
-  <si>
-    <t>8级防守宝石</t>
-  </si>
-  <si>
-    <t>9级防守宝石</t>
-  </si>
-  <si>
-    <t>1级抢断宝石</t>
-  </si>
-  <si>
-    <t>2级抢断宝石</t>
-  </si>
-  <si>
-    <t>3级抢断宝石</t>
-  </si>
-  <si>
-    <t>4级抢断宝石</t>
-  </si>
-  <si>
-    <t>5级抢断宝石</t>
-  </si>
-  <si>
-    <t>6级抢断宝石</t>
-  </si>
-  <si>
-    <t>7级抢断宝石</t>
-  </si>
-  <si>
-    <t>8级抢断宝石</t>
-  </si>
-  <si>
-    <t>9级抢断宝石</t>
-  </si>
-  <si>
-    <t>1级拦截宝石</t>
-  </si>
-  <si>
-    <t>2级拦截宝石</t>
-  </si>
-  <si>
-    <t>3级拦截宝石</t>
-  </si>
-  <si>
-    <t>4级拦截宝石</t>
-  </si>
-  <si>
-    <t>5级拦截宝石</t>
-  </si>
-  <si>
-    <t>6级拦截宝石</t>
-  </si>
-  <si>
-    <t>7级拦截宝石</t>
-  </si>
-  <si>
-    <t>8级拦截宝石</t>
-  </si>
-  <si>
-    <t>9级拦截宝石</t>
-  </si>
-  <si>
-    <t>1级守门宝石</t>
-  </si>
-  <si>
-    <t>2级守门宝石</t>
-  </si>
-  <si>
-    <t>3级守门宝石</t>
-  </si>
-  <si>
-    <t>4级守门宝石</t>
-  </si>
-  <si>
-    <t>5级守门宝石</t>
-  </si>
-  <si>
-    <t>6级守门宝石</t>
-  </si>
-  <si>
-    <t>7级守门宝石</t>
-  </si>
-  <si>
-    <t>8级守门宝石</t>
-  </si>
-  <si>
-    <t>9级守门宝石</t>
-  </si>
-  <si>
-    <t>1级控球宝石</t>
-  </si>
-  <si>
-    <t>2级控球宝石</t>
-  </si>
-  <si>
-    <t>3级控球宝石</t>
-  </si>
-  <si>
-    <t>4级控球宝石</t>
-  </si>
-  <si>
-    <t>5级控球宝石</t>
-  </si>
-  <si>
-    <t>6级控球宝石</t>
-  </si>
-  <si>
-    <t>7级控球宝石</t>
-  </si>
-  <si>
-    <t>8级控球宝石</t>
-  </si>
-  <si>
-    <t>9级控球宝石</t>
-  </si>
-  <si>
-    <t>1级身体宝石</t>
-  </si>
-  <si>
-    <t>2级身体宝石</t>
-  </si>
-  <si>
-    <t>3级身体宝石</t>
-  </si>
-  <si>
-    <t>4级身体宝石</t>
-  </si>
-  <si>
-    <t>5级身体宝石</t>
-  </si>
-  <si>
-    <t>6级身体宝石</t>
-  </si>
-  <si>
-    <t>7级身体宝石</t>
-  </si>
-  <si>
-    <t>8级身体宝石</t>
-  </si>
-  <si>
-    <t>9级身体宝石</t>
-  </si>
-  <si>
-    <t>1级技术宝石</t>
-  </si>
-  <si>
-    <t>2级技术宝石</t>
-  </si>
-  <si>
-    <t>3级技术宝石</t>
-  </si>
-  <si>
-    <t>4级技术宝石</t>
-  </si>
-  <si>
-    <t>5级技术宝石</t>
-  </si>
-  <si>
-    <t>6级技术宝石</t>
-  </si>
-  <si>
-    <t>7级技术宝石</t>
-  </si>
-  <si>
-    <t>8级技术宝石</t>
-  </si>
-  <si>
-    <t>9级技术宝石</t>
-  </si>
-  <si>
     <t>宝石表:itemsDiamondConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级射门晶体</t>
+  </si>
+  <si>
+    <t>2级射门晶体</t>
+  </si>
+  <si>
+    <t>3级射门晶体</t>
+  </si>
+  <si>
+    <t>4级射门晶体</t>
+  </si>
+  <si>
+    <t>5级射门晶体</t>
+  </si>
+  <si>
+    <t>6级射门晶体</t>
+  </si>
+  <si>
+    <t>7级射门晶体</t>
+  </si>
+  <si>
+    <t>8级射门晶体</t>
+  </si>
+  <si>
+    <t>9级射门晶体</t>
+  </si>
+  <si>
+    <t>1级传球晶体</t>
+  </si>
+  <si>
+    <t>2级传球晶体</t>
+  </si>
+  <si>
+    <t>3级传球晶体</t>
+  </si>
+  <si>
+    <t>4级传球晶体</t>
+  </si>
+  <si>
+    <t>5级传球晶体</t>
+  </si>
+  <si>
+    <t>6级传球晶体</t>
+  </si>
+  <si>
+    <t>7级传球晶体</t>
+  </si>
+  <si>
+    <t>8级传球晶体</t>
+  </si>
+  <si>
+    <t>9级传球晶体</t>
+  </si>
+  <si>
+    <t>1级盘带晶体</t>
+  </si>
+  <si>
+    <t>2级盘带晶体</t>
+  </si>
+  <si>
+    <t>3级盘带晶体</t>
+  </si>
+  <si>
+    <t>4级盘带晶体</t>
+  </si>
+  <si>
+    <t>5级盘带晶体</t>
+  </si>
+  <si>
+    <t>6级盘带晶体</t>
+  </si>
+  <si>
+    <t>7级盘带晶体</t>
+  </si>
+  <si>
+    <t>8级盘带晶体</t>
+  </si>
+  <si>
+    <t>9级盘带晶体</t>
+  </si>
+  <si>
+    <t>1级防守晶体</t>
+  </si>
+  <si>
+    <t>2级防守晶体</t>
+  </si>
+  <si>
+    <t>3级防守晶体</t>
+  </si>
+  <si>
+    <t>4级防守晶体</t>
+  </si>
+  <si>
+    <t>5级防守晶体</t>
+  </si>
+  <si>
+    <t>6级防守晶体</t>
+  </si>
+  <si>
+    <t>7级防守晶体</t>
+  </si>
+  <si>
+    <t>8级防守晶体</t>
+  </si>
+  <si>
+    <t>9级防守晶体</t>
+  </si>
+  <si>
+    <t>1级抢断晶体</t>
+  </si>
+  <si>
+    <t>2级抢断晶体</t>
+  </si>
+  <si>
+    <t>3级抢断晶体</t>
+  </si>
+  <si>
+    <t>4级抢断晶体</t>
+  </si>
+  <si>
+    <t>5级抢断晶体</t>
+  </si>
+  <si>
+    <t>6级抢断晶体</t>
+  </si>
+  <si>
+    <t>7级抢断晶体</t>
+  </si>
+  <si>
+    <t>8级抢断晶体</t>
+  </si>
+  <si>
+    <t>9级抢断晶体</t>
+  </si>
+  <si>
+    <t>1级拦截晶体</t>
+  </si>
+  <si>
+    <t>2级拦截晶体</t>
+  </si>
+  <si>
+    <t>3级拦截晶体</t>
+  </si>
+  <si>
+    <t>4级拦截晶体</t>
+  </si>
+  <si>
+    <t>5级拦截晶体</t>
+  </si>
+  <si>
+    <t>6级拦截晶体</t>
+  </si>
+  <si>
+    <t>7级拦截晶体</t>
+  </si>
+  <si>
+    <t>8级拦截晶体</t>
+  </si>
+  <si>
+    <t>9级拦截晶体</t>
+  </si>
+  <si>
+    <t>1级守门晶体</t>
+  </si>
+  <si>
+    <t>2级守门晶体</t>
+  </si>
+  <si>
+    <t>3级守门晶体</t>
+  </si>
+  <si>
+    <t>4级守门晶体</t>
+  </si>
+  <si>
+    <t>5级守门晶体</t>
+  </si>
+  <si>
+    <t>6级守门晶体</t>
+  </si>
+  <si>
+    <t>7级守门晶体</t>
+  </si>
+  <si>
+    <t>8级守门晶体</t>
+  </si>
+  <si>
+    <t>9级守门晶体</t>
+  </si>
+  <si>
+    <t>1级控球晶体</t>
+  </si>
+  <si>
+    <t>2级控球晶体</t>
+  </si>
+  <si>
+    <t>3级控球晶体</t>
+  </si>
+  <si>
+    <t>4级控球晶体</t>
+  </si>
+  <si>
+    <t>5级控球晶体</t>
+  </si>
+  <si>
+    <t>6级控球晶体</t>
+  </si>
+  <si>
+    <t>7级控球晶体</t>
+  </si>
+  <si>
+    <t>8级控球晶体</t>
+  </si>
+  <si>
+    <t>9级控球晶体</t>
+  </si>
+  <si>
+    <t>1级身体晶体</t>
+  </si>
+  <si>
+    <t>2级身体晶体</t>
+  </si>
+  <si>
+    <t>3级身体晶体</t>
+  </si>
+  <si>
+    <t>4级身体晶体</t>
+  </si>
+  <si>
+    <t>5级身体晶体</t>
+  </si>
+  <si>
+    <t>6级身体晶体</t>
+  </si>
+  <si>
+    <t>7级身体晶体</t>
+  </si>
+  <si>
+    <t>8级身体晶体</t>
+  </si>
+  <si>
+    <t>9级身体晶体</t>
+  </si>
+  <si>
+    <t>1级技术晶体</t>
+  </si>
+  <si>
+    <t>2级技术晶体</t>
+  </si>
+  <si>
+    <t>3级技术晶体</t>
+  </si>
+  <si>
+    <t>4级技术晶体</t>
+  </si>
+  <si>
+    <t>5级技术晶体</t>
+  </si>
+  <si>
+    <t>6级技术晶体</t>
+  </si>
+  <si>
+    <t>7级技术晶体</t>
+  </si>
+  <si>
+    <t>8级技术晶体</t>
+  </si>
+  <si>
+    <t>9级技术晶体</t>
   </si>
 </sst>
 </file>
@@ -443,74 +443,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -523,14 +455,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -565,7 +497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,7 +532,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -854,7 +786,7 @@
         <v>103001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -868,7 +800,7 @@
         <v>103002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -882,7 +814,7 @@
         <v>103003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -896,7 +828,7 @@
         <v>103004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -910,7 +842,7 @@
         <v>103005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -924,7 +856,7 @@
         <v>103006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -938,7 +870,7 @@
         <v>103007</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -952,7 +884,7 @@
         <v>103008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -966,7 +898,7 @@
         <v>103009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -980,7 +912,7 @@
         <v>103101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -994,7 +926,7 @@
         <v>103102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1008,7 +940,7 @@
         <v>103103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1022,7 +954,7 @@
         <v>103104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1036,7 +968,7 @@
         <v>103105</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1050,7 +982,7 @@
         <v>103106</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1064,7 +996,7 @@
         <v>103107</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1078,7 +1010,7 @@
         <v>103108</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -1092,7 +1024,7 @@
         <v>103109</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1106,7 +1038,7 @@
         <v>103201</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1120,7 +1052,7 @@
         <v>103202</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1134,7 +1066,7 @@
         <v>103203</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1148,7 +1080,7 @@
         <v>103204</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1162,7 +1094,7 @@
         <v>103205</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1176,7 +1108,7 @@
         <v>103206</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1190,7 +1122,7 @@
         <v>103207</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1204,7 +1136,7 @@
         <v>103208</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1218,7 +1150,7 @@
         <v>103209</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -1232,7 +1164,7 @@
         <v>103301</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
@@ -1246,7 +1178,7 @@
         <v>103302</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
@@ -1260,7 +1192,7 @@
         <v>103303</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
@@ -1274,7 +1206,7 @@
         <v>103304</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
@@ -1288,7 +1220,7 @@
         <v>103305</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
@@ -1302,7 +1234,7 @@
         <v>103306</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
@@ -1316,7 +1248,7 @@
         <v>103307</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
@@ -1330,7 +1262,7 @@
         <v>103308</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
@@ -1344,7 +1276,7 @@
         <v>103309</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
@@ -1358,7 +1290,7 @@
         <v>103401</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
@@ -1372,7 +1304,7 @@
         <v>103402</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
@@ -1386,7 +1318,7 @@
         <v>103403</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
@@ -1400,7 +1332,7 @@
         <v>103404</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
@@ -1414,7 +1346,7 @@
         <v>103405</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
@@ -1428,7 +1360,7 @@
         <v>103406</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
@@ -1442,7 +1374,7 @@
         <v>103407</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
@@ -1456,7 +1388,7 @@
         <v>103408</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
@@ -1470,7 +1402,7 @@
         <v>103409</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
@@ -1484,7 +1416,7 @@
         <v>103501</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -1498,7 +1430,7 @@
         <v>103502</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -1512,7 +1444,7 @@
         <v>103503</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -1526,7 +1458,7 @@
         <v>103504</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
@@ -1540,7 +1472,7 @@
         <v>103505</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -1554,7 +1486,7 @@
         <v>103506</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -1568,7 +1500,7 @@
         <v>103507</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
@@ -1582,7 +1514,7 @@
         <v>103508</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -1596,7 +1528,7 @@
         <v>103509</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
@@ -1610,7 +1542,7 @@
         <v>103601</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>7</v>
@@ -1624,7 +1556,7 @@
         <v>103602</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>7</v>
@@ -1638,7 +1570,7 @@
         <v>103603</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>7</v>
@@ -1652,7 +1584,7 @@
         <v>103604</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>7</v>
@@ -1666,7 +1598,7 @@
         <v>103605</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>7</v>
@@ -1680,7 +1612,7 @@
         <v>103606</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>7</v>
@@ -1694,7 +1626,7 @@
         <v>103607</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>7</v>
@@ -1708,7 +1640,7 @@
         <v>103608</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>7</v>
@@ -1722,7 +1654,7 @@
         <v>103609</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>7</v>
@@ -1736,7 +1668,7 @@
         <v>103701</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
@@ -1750,7 +1682,7 @@
         <v>103702</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
@@ -1764,7 +1696,7 @@
         <v>103703</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
@@ -1778,7 +1710,7 @@
         <v>103704</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
@@ -1792,7 +1724,7 @@
         <v>103705</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
@@ -1806,7 +1738,7 @@
         <v>103706</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
@@ -1820,7 +1752,7 @@
         <v>103707</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
@@ -1834,7 +1766,7 @@
         <v>103708</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
@@ -1848,7 +1780,7 @@
         <v>103709</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
@@ -1862,7 +1794,7 @@
         <v>103801</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
@@ -1876,7 +1808,7 @@
         <v>103802</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
@@ -1890,7 +1822,7 @@
         <v>103803</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
@@ -1904,7 +1836,7 @@
         <v>103804</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
@@ -1918,7 +1850,7 @@
         <v>103805</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
@@ -1932,7 +1864,7 @@
         <v>103806</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
@@ -1946,7 +1878,7 @@
         <v>103807</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
@@ -1960,7 +1892,7 @@
         <v>103808</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>14</v>
@@ -1974,7 +1906,7 @@
         <v>103809</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
@@ -1988,7 +1920,7 @@
         <v>103901</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
@@ -2002,7 +1934,7 @@
         <v>103902</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
@@ -2016,7 +1948,7 @@
         <v>103903</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
@@ -2030,7 +1962,7 @@
         <v>103904</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
@@ -2044,7 +1976,7 @@
         <v>103905</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
@@ -2058,7 +1990,7 @@
         <v>103906</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>16</v>
@@ -2072,7 +2004,7 @@
         <v>103907</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>16</v>
@@ -2086,7 +2018,7 @@
         <v>103908</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
@@ -2100,7 +2032,7 @@
         <v>103909</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
@@ -2128,7 +2060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2142,7 +2074,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
